--- a/biology/Zoologie/Evenus/Evenus.xlsx
+++ b/biology/Zoologie/Evenus/Evenus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Evenus est un genre d'insectes lépidoptères de la famille des Lycaenidae et de la sous-famille des Theclinae présents en Amérique.
 </t>
@@ -511,7 +523,9 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre a été nommé par Jakob Hübner en 1819.
 </t>
@@ -542,20 +556,22 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Evenus batesii (Hewitson, 1865)présent à Panama, au Brésil et en Guyane.
 Evenus candidus (Druce, 1907) présent en Colombie et en Équateur
 Evenus coronata (Hewitson, 1865) présent au Guatemala, en Colombie, en Équateur et au Pérou.
 Evenus floralia (Druce, 1907) présent au Brésil et en Guyane.
-Evenus gabriela (Cramer, [1775]) présent en Colombie, au Brésil, en Guyana et en Guyane.
+Evenus gabriela (Cramer, ) présent en Colombie, au Brésil, en Guyana et en Guyane.
 Evenus latreillii (Hewitson, 1865)
-Evenus regalis (Cramer, [1775]) présent au Mexique et en Amazonie dont en Guyane.
+Evenus regalis (Cramer, ) présent au Mexique et en Amazonie dont en Guyane.
 Evenus satyroides (Hewitson, 1865) présent au Brésil et en Guyane.
 Evenus sponsa (Möschler, 1877) présent au Surinam, en Guyana et en Guyane.
 Evenus sumptuosa (Druce, 1907) présent au Brésil.
 Evenus tagyra (Hewitson, 1865) présent en Amazonie.
-Evenus temathea (Hewitson, 1865)[1],[2].</t>
+Evenus temathea (Hewitson, 1865),.</t>
         </is>
       </c>
     </row>
@@ -583,9 +599,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Evenus sont présents en Amérique centrale et Amérique du Sud[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Evenus sont présents en Amérique centrale et Amérique du Sud.
 Sur les autres projets Wikimedia :
 Evenus, sur Wikimedia CommonsEvenus, sur Wikispecies
 </t>
